--- a/formats/excel/Formats RAPSS ANO 17.xlsx
+++ b/formats/excel/Formats RAPSS ANO 17.xlsx
@@ -642,19 +642,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,24 +672,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -716,7 +711,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,10 +740,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -760,55 +772,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,6 +789,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,7 +843,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,175 +1023,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,6 +1078,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1125,6 +1127,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1150,36 +1167,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1193,145 +1180,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1345,45 +1332,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1702,9 +1689,9 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -2750,7 +2737,9 @@
       <c r="E52" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="F52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="10">
@@ -2768,7 +2757,9 @@
       <c r="E53" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="10">
@@ -2786,7 +2777,9 @@
       <c r="E54" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="10">
@@ -2804,7 +2797,9 @@
       <c r="E55" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="10">
@@ -2822,7 +2817,9 @@
       <c r="E56" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="10">
@@ -2840,7 +2837,9 @@
       <c r="E57" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="10">
@@ -2858,7 +2857,9 @@
       <c r="E58" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="F58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="10">
@@ -2876,7 +2877,9 @@
       <c r="E59" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="10">
@@ -2894,7 +2897,9 @@
       <c r="E60" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="F60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="10">
@@ -2912,7 +2917,9 @@
       <c r="E61" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="F61" s="2"/>
+      <c r="F61" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="12">

--- a/formats/excel/Formats RAPSS ANO 17.xlsx
+++ b/formats/excel/Formats RAPSS ANO 17.xlsx
@@ -642,9 +642,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -695,48 +695,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -748,17 +711,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,16 +756,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -810,7 +803,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,13 +849,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,73 +891,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,13 +921,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,25 +981,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,31 +1023,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,15 +1097,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1141,6 +1132,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1158,10 +1160,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1180,139 +1180,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1691,7 +1691,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
+      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -3692,7 +3692,7 @@
         <v>417</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E100" s="16" t="s">
         <v>83</v>

--- a/formats/excel/Formats RAPSS ANO 17.xlsx
+++ b/formats/excel/Formats RAPSS ANO 17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208">
   <si>
     <t>longueur</t>
   </si>
@@ -623,6 +623,9 @@
   </si>
   <si>
     <t>Date de sortie</t>
+  </si>
+  <si>
+    <t>Filler4</t>
   </si>
   <si>
     <t>EMPNUM</t>
@@ -642,10 +645,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -680,16 +683,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,15 +722,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,7 +752,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,15 +790,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,16 +804,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,36 +814,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,13 +852,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,37 +918,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,7 +936,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,25 +972,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,25 +996,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,37 +1026,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,22 +1100,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,11 +1122,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,10 +1144,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1180,142 +1183,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1691,7 +1694,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
+      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -3692,7 +3695,7 @@
         <v>417</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="E100" s="16" t="s">
         <v>83</v>
@@ -3712,10 +3715,10 @@
         <v>449</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F101" t="s">
         <v>8</v>
@@ -3732,10 +3735,10 @@
         <v>793</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F102" t="s">
         <v>8</v>

--- a/formats/excel/Formats RAPSS ANO 17.xlsx
+++ b/formats/excel/Formats RAPSS ANO 17.xlsx
@@ -145,7 +145,10 @@
     <t xml:space="preserve">N° de séjour </t>
   </si>
   <si>
-    <t>NOSEJHAD</t>
+    <t>i</t>
+  </si>
+  <si>
+    <t>NOSEQSEJ</t>
   </si>
   <si>
     <t xml:space="preserve">N° séquentiel de séjour HAD/Numéro séquentiel d'entrée </t>
@@ -449,9 +452,6 @@
   </si>
   <si>
     <t xml:space="preserve">Facturation du 18 euro </t>
-  </si>
-  <si>
-    <t>i</t>
   </si>
   <si>
     <t>NBEVEN</t>
@@ -645,10 +645,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -683,11 +683,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -698,23 +706,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -730,15 +723,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,31 +745,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,9 +762,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -803,17 +812,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -852,7 +852,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,19 +930,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,25 +942,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,115 +1020,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,6 +1105,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1120,15 +1144,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1140,21 +1155,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,142 +1183,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1692,9 +1692,9 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -2081,7 +2081,7 @@
         <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2095,10 +2095,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>8</v>
@@ -2115,10 +2115,10 @@
         <v>91</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>8</v>
@@ -2135,10 +2135,10 @@
         <v>99</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>8</v>
@@ -2155,10 +2155,10 @@
         <v>100</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>8</v>
@@ -2175,10 +2175,10 @@
         <v>101</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>8</v>
@@ -2195,10 +2195,10 @@
         <v>102</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>8</v>
@@ -2215,10 +2215,10 @@
         <v>103</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>8</v>
@@ -2235,10 +2235,10 @@
         <v>104</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>8</v>
@@ -2255,10 +2255,10 @@
         <v>105</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>8</v>
@@ -2275,10 +2275,10 @@
         <v>106</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>8</v>
@@ -2295,10 +2295,10 @@
         <v>107</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>8</v>
@@ -2315,10 +2315,10 @@
         <v>108</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>8</v>
@@ -2335,10 +2335,10 @@
         <v>109</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>8</v>
@@ -2355,10 +2355,10 @@
         <v>110</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>8</v>
@@ -2375,10 +2375,10 @@
         <v>111</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -2395,10 +2395,10 @@
         <v>112</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>8</v>
@@ -2415,10 +2415,10 @@
         <v>113</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>8</v>
@@ -2435,10 +2435,10 @@
         <v>114</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>8</v>
@@ -2455,10 +2455,10 @@
         <v>115</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>8</v>
@@ -2475,10 +2475,10 @@
         <v>116</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>8</v>
@@ -2495,10 +2495,10 @@
         <v>119</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>8</v>
@@ -2515,10 +2515,10 @@
         <v>120</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>8</v>
@@ -2535,10 +2535,10 @@
         <v>121</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>8</v>
@@ -2555,10 +2555,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>8</v>
@@ -2575,10 +2575,10 @@
         <v>123</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>8</v>
@@ -2595,10 +2595,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>8</v>
@@ -2615,10 +2615,10 @@
         <v>125</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>8</v>
@@ -2635,10 +2635,10 @@
         <v>126</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>8</v>
@@ -2655,10 +2655,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>8</v>
@@ -2675,10 +2675,10 @@
         <v>128</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>8</v>
@@ -2695,10 +2695,10 @@
         <v>129</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>8</v>
@@ -2715,10 +2715,10 @@
         <v>130</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>8</v>
@@ -2735,10 +2735,10 @@
         <v>131</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>8</v>
@@ -2755,10 +2755,10 @@
         <v>132</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>8</v>
@@ -2775,10 +2775,10 @@
         <v>133</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>8</v>
@@ -2795,10 +2795,10 @@
         <v>134</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>8</v>
@@ -2815,10 +2815,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>8</v>
@@ -2835,10 +2835,10 @@
         <v>136</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>8</v>
@@ -2855,10 +2855,10 @@
         <v>137</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>8</v>
@@ -2875,10 +2875,10 @@
         <v>138</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>8</v>
@@ -2895,10 +2895,10 @@
         <v>139</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>8</v>
@@ -2915,10 +2915,10 @@
         <v>140</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>8</v>
@@ -2935,10 +2935,10 @@
         <v>142</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>8</v>
@@ -2955,10 +2955,10 @@
         <v>144</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>8</v>
@@ -2975,10 +2975,10 @@
         <v>145</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>8</v>
@@ -2995,10 +2995,10 @@
         <v>146</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>8</v>
@@ -3015,10 +3015,10 @@
         <v>148</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>8</v>
@@ -3035,10 +3035,10 @@
         <v>142</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>8</v>
@@ -3055,10 +3055,10 @@
         <v>143</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>8</v>
@@ -3075,10 +3075,10 @@
         <v>147</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>8</v>
@@ -3095,13 +3095,13 @@
         <v>148</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3278,7 +3278,7 @@
         <v>163</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>8</v>
@@ -3378,7 +3378,7 @@
         <v>172</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>8</v>
@@ -3698,7 +3698,7 @@
         <v>203</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F100" t="s">
         <v>8</v>

--- a/formats/excel/Formats RAPSS ANO 17.xlsx
+++ b/formats/excel/Formats RAPSS ANO 17.xlsx
@@ -460,13 +460,13 @@
     <t xml:space="preserve">Nombre de venues de la facture </t>
   </si>
   <si>
+    <t>MTFACTMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montant à facturer au titre du ticket modérateur </t>
+  </si>
+  <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>MTFACTMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montant à facturer au titre du ticket modérateur </t>
   </si>
   <si>
     <t>MTFORJOU</t>
@@ -646,9 +646,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -683,22 +683,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -706,27 +690,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -739,7 +728,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,9 +736,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -768,8 +757,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,7 +774,31 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,32 +811,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -852,7 +852,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,7 +906,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,19 +918,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,19 +936,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,25 +954,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,7 +984,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,60 +1027,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,24 +1096,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1144,6 +1126,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1161,11 +1163,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1173,8 +1173,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,139 +1183,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1692,9 +1692,9 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -3101,7 +3101,7 @@
         <v>145</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3121,7 +3121,7 @@
         <v>147</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3135,13 +3135,13 @@
         <v>162</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3161,7 +3161,7 @@
         <v>152</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3181,7 +3181,7 @@
         <v>154</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3201,7 +3201,7 @@
         <v>156</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3221,7 +3221,7 @@
         <v>158</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3241,7 +3241,7 @@
         <v>160</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3321,7 +3321,7 @@
         <v>167</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:6">

--- a/formats/excel/Formats RAPSS ANO 17.xlsx
+++ b/formats/excel/Formats RAPSS ANO 17.xlsx
@@ -647,10 +647,10 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,60 +675,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,38 +703,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,10 +734,40 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -805,17 +780,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -852,13 +863,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,19 +905,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,19 +947,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,19 +977,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,85 +1025,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,32 +1107,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1137,11 +1127,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1170,6 +1166,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1183,152 +1194,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1337,43 +1348,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1692,16 +1705,17 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="3" width="8.8" style="1"/>
-    <col min="4" max="4" width="13.3" customWidth="1"/>
-    <col min="5" max="5" width="96.9" customWidth="1"/>
+    <col min="1" max="3" width="8.8" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.8" customWidth="1"/>
+    <col min="5" max="5" width="45.8" customWidth="1"/>
+    <col min="6" max="6" width="4.6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1749,9 +1763,11 @@
         <v>9</v>
       </c>
       <c r="B3" s="3">
+        <f t="shared" ref="B3:B66" si="0">C2+1</f>
         <v>10</v>
       </c>
       <c r="C3" s="4">
+        <f t="shared" ref="C3:C66" si="1">B3+A3-1</f>
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1769,9 +1785,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C4" s="4">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1789,9 +1807,11 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C5" s="4">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1809,9 +1829,11 @@
         <v>2</v>
       </c>
       <c r="B6" s="3">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C6" s="4">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1829,9 +1851,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="3">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C7" s="4">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1849,9 +1873,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C8" s="4">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1869,9 +1895,11 @@
         <v>1</v>
       </c>
       <c r="B9" s="3">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C9" s="4">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1889,9 +1917,11 @@
         <v>1</v>
       </c>
       <c r="B10" s="3">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C10" s="4">
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1909,9 +1939,11 @@
         <v>1</v>
       </c>
       <c r="B11" s="3">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C11" s="4">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1929,9 +1961,11 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C12" s="4">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1949,9 +1983,11 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C13" s="4">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1969,9 +2005,11 @@
         <v>1</v>
       </c>
       <c r="B14" s="3">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="C14" s="4">
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1989,9 +2027,11 @@
         <v>1</v>
       </c>
       <c r="B15" s="3">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C15" s="4">
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2009,9 +2049,11 @@
         <v>1</v>
       </c>
       <c r="B16" s="3">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="C16" s="4">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -2029,9 +2071,11 @@
         <v>17</v>
       </c>
       <c r="B17" s="3">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C17" s="4">
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -2049,9 +2093,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="5">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="C18" s="6">
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2069,9 +2115,11 @@
         <v>5</v>
       </c>
       <c r="B19" s="3">
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="C19" s="4">
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -2089,9 +2137,11 @@
         <v>5</v>
       </c>
       <c r="B20" s="7">
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="C20" s="8">
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -2109,9 +2159,11 @@
         <v>8</v>
       </c>
       <c r="B21" s="3">
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="C21" s="4">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2129,9 +2181,11 @@
         <v>8</v>
       </c>
       <c r="B22" s="3">
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="C22" s="4">
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2149,9 +2203,11 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C23" s="4">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -2169,9 +2225,11 @@
         <v>1</v>
       </c>
       <c r="B24" s="3">
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="C24" s="4">
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -2189,9 +2247,11 @@
         <v>1</v>
       </c>
       <c r="B25" s="3">
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
       <c r="C25" s="4">
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2209,9 +2269,11 @@
         <v>1</v>
       </c>
       <c r="B26" s="3">
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
       <c r="C26" s="4">
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2229,9 +2291,11 @@
         <v>1</v>
       </c>
       <c r="B27" s="3">
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="C27" s="4">
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2249,9 +2313,11 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="C28" s="4">
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -2269,9 +2335,11 @@
         <v>1</v>
       </c>
       <c r="B29" s="3">
+        <f t="shared" si="0"/>
         <v>106</v>
       </c>
       <c r="C29" s="4">
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -2289,9 +2357,11 @@
         <v>1</v>
       </c>
       <c r="B30" s="3">
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="C30" s="4">
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2309,9 +2379,11 @@
         <v>1</v>
       </c>
       <c r="B31" s="3">
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="C31" s="4">
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -2329,9 +2401,11 @@
         <v>1</v>
       </c>
       <c r="B32" s="3">
+        <f t="shared" si="0"/>
         <v>109</v>
       </c>
       <c r="C32" s="4">
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -2349,9 +2423,11 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="C33" s="4">
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -2369,9 +2445,11 @@
         <v>1</v>
       </c>
       <c r="B34" s="3">
+        <f t="shared" si="0"/>
         <v>111</v>
       </c>
       <c r="C34" s="4">
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -2389,9 +2467,11 @@
         <v>1</v>
       </c>
       <c r="B35" s="3">
+        <f t="shared" si="0"/>
         <v>112</v>
       </c>
       <c r="C35" s="4">
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -2409,9 +2489,11 @@
         <v>1</v>
       </c>
       <c r="B36" s="3">
+        <f t="shared" si="0"/>
         <v>113</v>
       </c>
       <c r="C36" s="4">
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -2429,9 +2511,11 @@
         <v>1</v>
       </c>
       <c r="B37" s="3">
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="C37" s="4">
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2449,9 +2533,11 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="C38" s="4">
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -2469,9 +2555,11 @@
         <v>1</v>
       </c>
       <c r="B39" s="3">
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="C39" s="4">
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -2489,9 +2577,11 @@
         <v>3</v>
       </c>
       <c r="B40" s="3">
+        <f t="shared" si="0"/>
         <v>117</v>
       </c>
       <c r="C40" s="4">
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -2509,9 +2599,11 @@
         <v>1</v>
       </c>
       <c r="B41" s="3">
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="C41" s="4">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -2529,9 +2621,11 @@
         <v>1</v>
       </c>
       <c r="B42" s="3">
+        <f t="shared" si="0"/>
         <v>121</v>
       </c>
       <c r="C42" s="4">
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -2549,9 +2643,11 @@
         <v>1</v>
       </c>
       <c r="B43" s="3">
+        <f t="shared" si="0"/>
         <v>122</v>
       </c>
       <c r="C43" s="4">
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -2569,9 +2665,11 @@
         <v>1</v>
       </c>
       <c r="B44" s="3">
+        <f t="shared" si="0"/>
         <v>123</v>
       </c>
       <c r="C44" s="4">
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -2589,9 +2687,11 @@
         <v>1</v>
       </c>
       <c r="B45" s="3">
+        <f t="shared" si="0"/>
         <v>124</v>
       </c>
       <c r="C45" s="4">
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -2609,9 +2709,11 @@
         <v>1</v>
       </c>
       <c r="B46" s="3">
+        <f t="shared" si="0"/>
         <v>125</v>
       </c>
       <c r="C46" s="4">
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -2629,9 +2731,11 @@
         <v>1</v>
       </c>
       <c r="B47" s="3">
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
       <c r="C47" s="4">
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -2649,9 +2753,11 @@
         <v>1</v>
       </c>
       <c r="B48" s="3">
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="C48" s="4">
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -2669,9 +2775,11 @@
         <v>1</v>
       </c>
       <c r="B49" s="3">
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="C49" s="4">
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -2689,9 +2797,11 @@
         <v>1</v>
       </c>
       <c r="B50" s="3">
+        <f t="shared" si="0"/>
         <v>129</v>
       </c>
       <c r="C50" s="4">
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -2709,9 +2819,11 @@
         <v>1</v>
       </c>
       <c r="B51" s="3">
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="C51" s="4">
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -2729,9 +2841,11 @@
         <v>1</v>
       </c>
       <c r="B52" s="5">
+        <f t="shared" si="0"/>
         <v>131</v>
       </c>
       <c r="C52" s="6">
+        <f t="shared" si="1"/>
         <v>131</v>
       </c>
       <c r="D52" s="11" t="s">
@@ -2749,9 +2863,11 @@
         <v>1</v>
       </c>
       <c r="B53" s="5">
+        <f t="shared" si="0"/>
         <v>132</v>
       </c>
       <c r="C53" s="6">
+        <f t="shared" si="1"/>
         <v>132</v>
       </c>
       <c r="D53" s="11" t="s">
@@ -2769,9 +2885,11 @@
         <v>1</v>
       </c>
       <c r="B54" s="5">
+        <f t="shared" si="0"/>
         <v>133</v>
       </c>
       <c r="C54" s="6">
+        <f t="shared" si="1"/>
         <v>133</v>
       </c>
       <c r="D54" s="11" t="s">
@@ -2789,9 +2907,11 @@
         <v>1</v>
       </c>
       <c r="B55" s="5">
+        <f t="shared" si="0"/>
         <v>134</v>
       </c>
       <c r="C55" s="6">
+        <f t="shared" si="1"/>
         <v>134</v>
       </c>
       <c r="D55" s="11" t="s">
@@ -2809,9 +2929,11 @@
         <v>1</v>
       </c>
       <c r="B56" s="5">
+        <f t="shared" si="0"/>
         <v>135</v>
       </c>
       <c r="C56" s="6">
+        <f t="shared" si="1"/>
         <v>135</v>
       </c>
       <c r="D56" s="11" t="s">
@@ -2829,9 +2951,11 @@
         <v>1</v>
       </c>
       <c r="B57" s="5">
+        <f t="shared" si="0"/>
         <v>136</v>
       </c>
       <c r="C57" s="6">
+        <f t="shared" si="1"/>
         <v>136</v>
       </c>
       <c r="D57" s="11" t="s">
@@ -2849,9 +2973,11 @@
         <v>1</v>
       </c>
       <c r="B58" s="5">
+        <f t="shared" si="0"/>
         <v>137</v>
       </c>
       <c r="C58" s="6">
+        <f t="shared" si="1"/>
         <v>137</v>
       </c>
       <c r="D58" s="11" t="s">
@@ -2869,9 +2995,11 @@
         <v>1</v>
       </c>
       <c r="B59" s="5">
+        <f t="shared" si="0"/>
         <v>138</v>
       </c>
       <c r="C59" s="6">
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="D59" s="11" t="s">
@@ -2889,9 +3017,11 @@
         <v>1</v>
       </c>
       <c r="B60" s="5">
+        <f t="shared" si="0"/>
         <v>139</v>
       </c>
       <c r="C60" s="6">
+        <f t="shared" si="1"/>
         <v>139</v>
       </c>
       <c r="D60" s="11" t="s">
@@ -2909,9 +3039,11 @@
         <v>1</v>
       </c>
       <c r="B61" s="5">
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="C61" s="6">
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="D61" s="11" t="s">
@@ -2929,9 +3061,11 @@
         <v>2</v>
       </c>
       <c r="B62" s="3">
+        <f t="shared" si="0"/>
         <v>141</v>
       </c>
       <c r="C62" s="4">
+        <f t="shared" si="1"/>
         <v>142</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -2949,9 +3083,11 @@
         <v>2</v>
       </c>
       <c r="B63" s="3">
+        <f t="shared" si="0"/>
         <v>143</v>
       </c>
       <c r="C63" s="4">
+        <f t="shared" si="1"/>
         <v>144</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -2969,9 +3105,11 @@
         <v>1</v>
       </c>
       <c r="B64" s="3">
+        <f t="shared" si="0"/>
         <v>145</v>
       </c>
       <c r="C64" s="4">
+        <f t="shared" si="1"/>
         <v>145</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -2989,9 +3127,11 @@
         <v>1</v>
       </c>
       <c r="B65" s="3">
+        <f t="shared" si="0"/>
         <v>146</v>
       </c>
       <c r="C65" s="4">
+        <f t="shared" si="1"/>
         <v>146</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -3005,13 +3145,15 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="14">
+      <c r="A66" s="9">
         <v>2</v>
       </c>
-      <c r="B66" s="14">
+      <c r="B66" s="9">
+        <f t="shared" si="0"/>
         <v>147</v>
       </c>
-      <c r="C66" s="14">
+      <c r="C66" s="9">
+        <f t="shared" si="1"/>
         <v>148</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -3025,14 +3167,16 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="9">
+      <c r="A67" s="14">
         <v>2</v>
       </c>
-      <c r="B67" s="9">
-        <v>141</v>
-      </c>
-      <c r="C67" s="9">
-        <v>142</v>
+      <c r="B67" s="14">
+        <f t="shared" ref="B67:B102" si="2">C66+1</f>
+        <v>149</v>
+      </c>
+      <c r="C67" s="14">
+        <f t="shared" ref="C67:C102" si="3">B67+A67-1</f>
+        <v>150</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>138</v>
@@ -3049,10 +3193,12 @@
         <v>1</v>
       </c>
       <c r="B68" s="9">
-        <v>143</v>
+        <f t="shared" si="2"/>
+        <v>151</v>
       </c>
       <c r="C68" s="9">
-        <v>143</v>
+        <f t="shared" si="3"/>
+        <v>151</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>140</v>
@@ -3065,14 +3211,16 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="3">
-        <v>1</v>
-      </c>
-      <c r="B69" s="3">
-        <v>147</v>
-      </c>
-      <c r="C69" s="3">
-        <v>147</v>
+      <c r="A69" s="15">
+        <v>1</v>
+      </c>
+      <c r="B69" s="15">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="C69" s="15">
+        <f t="shared" si="3"/>
+        <v>152</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>142</v>
@@ -3085,14 +3233,16 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="4">
-        <v>1</v>
-      </c>
-      <c r="B70" s="3">
-        <v>148</v>
-      </c>
-      <c r="C70" s="3">
-        <v>148</v>
+      <c r="A70" s="16">
+        <v>1</v>
+      </c>
+      <c r="B70" s="15">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="C70" s="15">
+        <f t="shared" si="3"/>
+        <v>153</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>144</v>
@@ -3105,14 +3255,16 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="4">
+      <c r="A71" s="16">
         <v>4</v>
       </c>
-      <c r="B71" s="3">
-        <v>149</v>
-      </c>
-      <c r="C71" s="3">
-        <v>152</v>
+      <c r="B71" s="15">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="C71" s="15">
+        <f t="shared" si="3"/>
+        <v>157</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>146</v>
@@ -3125,14 +3277,16 @@
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="4">
+      <c r="A72" s="16">
         <v>10</v>
       </c>
-      <c r="B72" s="3">
-        <v>153</v>
-      </c>
-      <c r="C72" s="3">
-        <v>162</v>
+      <c r="B72" s="15">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="C72" s="15">
+        <f t="shared" si="3"/>
+        <v>167</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>148</v>
@@ -3145,14 +3299,16 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="4">
+      <c r="A73" s="16">
         <v>10</v>
       </c>
-      <c r="B73" s="3">
-        <v>163</v>
-      </c>
-      <c r="C73" s="3">
-        <v>172</v>
+      <c r="B73" s="15">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="C73" s="15">
+        <f t="shared" si="3"/>
+        <v>177</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>151</v>
@@ -3165,14 +3321,16 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="4">
+      <c r="A74" s="16">
         <v>10</v>
       </c>
-      <c r="B74" s="3">
-        <v>173</v>
-      </c>
-      <c r="C74" s="3">
-        <v>182</v>
+      <c r="B74" s="15">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="C74" s="15">
+        <f t="shared" si="3"/>
+        <v>187</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>153</v>
@@ -3185,14 +3343,16 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="4">
+      <c r="A75" s="16">
         <v>4</v>
       </c>
-      <c r="B75" s="3">
-        <v>183</v>
-      </c>
-      <c r="C75" s="3">
-        <v>186</v>
+      <c r="B75" s="15">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="C75" s="15">
+        <f t="shared" si="3"/>
+        <v>191</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>155</v>
@@ -3205,14 +3365,16 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="4">
+      <c r="A76" s="16">
         <v>10</v>
       </c>
-      <c r="B76" s="3">
-        <v>187</v>
-      </c>
-      <c r="C76" s="3">
-        <v>196</v>
+      <c r="B76" s="15">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="C76" s="15">
+        <f t="shared" si="3"/>
+        <v>201</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>157</v>
@@ -3225,14 +3387,16 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="4">
+      <c r="A77" s="16">
         <v>5</v>
       </c>
-      <c r="B77" s="3">
-        <v>197</v>
-      </c>
-      <c r="C77" s="3">
-        <v>201</v>
+      <c r="B77" s="15">
+        <f t="shared" si="2"/>
+        <v>202</v>
+      </c>
+      <c r="C77" s="15">
+        <f t="shared" si="3"/>
+        <v>206</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>159</v>
@@ -3245,14 +3409,16 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="4">
-        <v>1</v>
-      </c>
-      <c r="B78" s="3">
-        <v>202</v>
-      </c>
-      <c r="C78" s="3">
-        <v>202</v>
+      <c r="A78" s="16">
+        <v>1</v>
+      </c>
+      <c r="B78" s="15">
+        <f t="shared" si="2"/>
+        <v>207</v>
+      </c>
+      <c r="C78" s="15">
+        <f t="shared" si="3"/>
+        <v>207</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>161</v>
@@ -3265,14 +3431,16 @@
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="15">
+      <c r="A79" s="17">
         <v>66</v>
       </c>
-      <c r="B79" s="3">
-        <v>203</v>
-      </c>
-      <c r="C79" s="3">
-        <v>268</v>
+      <c r="B79" s="15">
+        <f t="shared" si="2"/>
+        <v>208</v>
+      </c>
+      <c r="C79" s="15">
+        <f t="shared" si="3"/>
+        <v>273</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>163</v>
@@ -3285,14 +3453,16 @@
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="9">
-        <v>8</v>
-      </c>
-      <c r="B80" s="3">
-        <v>269</v>
-      </c>
-      <c r="C80" s="3">
-        <v>276</v>
+      <c r="A80" s="14">
+        <v>8</v>
+      </c>
+      <c r="B80" s="15">
+        <f t="shared" si="2"/>
+        <v>274</v>
+      </c>
+      <c r="C80" s="15">
+        <f t="shared" si="3"/>
+        <v>281</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>164</v>
@@ -3305,14 +3475,16 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="4">
+      <c r="A81" s="16">
         <v>10</v>
       </c>
-      <c r="B81" s="3">
-        <v>277</v>
-      </c>
-      <c r="C81" s="3">
-        <v>286</v>
+      <c r="B81" s="15">
+        <f t="shared" si="2"/>
+        <v>282</v>
+      </c>
+      <c r="C81" s="15">
+        <f t="shared" si="3"/>
+        <v>291</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>166</v>
@@ -3325,14 +3497,16 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="4">
-        <v>1</v>
-      </c>
-      <c r="B82" s="3">
-        <v>287</v>
-      </c>
-      <c r="C82" s="3">
-        <v>287</v>
+      <c r="A82" s="16">
+        <v>1</v>
+      </c>
+      <c r="B82" s="15">
+        <f t="shared" si="2"/>
+        <v>292</v>
+      </c>
+      <c r="C82" s="15">
+        <f t="shared" si="3"/>
+        <v>292</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>168</v>
@@ -3345,14 +3519,16 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="4">
+      <c r="A83" s="16">
         <v>6</v>
       </c>
-      <c r="B83" s="3">
-        <v>288</v>
-      </c>
-      <c r="C83" s="3">
+      <c r="B83" s="15">
+        <f t="shared" si="2"/>
         <v>293</v>
+      </c>
+      <c r="C83" s="15">
+        <f t="shared" si="3"/>
+        <v>298</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>170</v>
@@ -3365,14 +3541,16 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="6">
+      <c r="A84" s="18">
         <v>3</v>
       </c>
-      <c r="B84" s="3">
-        <v>294</v>
-      </c>
-      <c r="C84" s="3">
-        <v>296</v>
+      <c r="B84" s="15">
+        <f t="shared" si="2"/>
+        <v>299</v>
+      </c>
+      <c r="C84" s="15">
+        <f t="shared" si="3"/>
+        <v>301</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>172</v>
@@ -3385,14 +3563,16 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="4">
-        <v>1</v>
-      </c>
-      <c r="B85" s="3">
-        <v>297</v>
-      </c>
-      <c r="C85" s="3">
-        <v>297</v>
+      <c r="A85" s="16">
+        <v>1</v>
+      </c>
+      <c r="B85" s="15">
+        <f t="shared" si="2"/>
+        <v>302</v>
+      </c>
+      <c r="C85" s="15">
+        <f t="shared" si="3"/>
+        <v>302</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>173</v>
@@ -3405,14 +3585,16 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="4">
+      <c r="A86" s="16">
         <v>3</v>
       </c>
-      <c r="B86" s="3">
-        <v>298</v>
-      </c>
-      <c r="C86" s="3">
-        <v>300</v>
+      <c r="B86" s="15">
+        <f t="shared" si="2"/>
+        <v>303</v>
+      </c>
+      <c r="C86" s="15">
+        <f t="shared" si="3"/>
+        <v>305</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>175</v>
@@ -3425,14 +3607,16 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="4">
+      <c r="A87" s="16">
         <v>3</v>
       </c>
-      <c r="B87" s="3">
-        <v>301</v>
-      </c>
-      <c r="C87" s="3">
-        <v>303</v>
+      <c r="B87" s="15">
+        <f t="shared" si="2"/>
+        <v>306</v>
+      </c>
+      <c r="C87" s="15">
+        <f t="shared" si="3"/>
+        <v>308</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>177</v>
@@ -3445,14 +3629,16 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="4">
+      <c r="A88" s="16">
         <v>4</v>
       </c>
-      <c r="B88" s="3">
-        <v>304</v>
-      </c>
-      <c r="C88" s="3">
-        <v>307</v>
+      <c r="B88" s="15">
+        <f t="shared" si="2"/>
+        <v>309</v>
+      </c>
+      <c r="C88" s="15">
+        <f t="shared" si="3"/>
+        <v>312</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>179</v>
@@ -3465,14 +3651,16 @@
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="4">
-        <v>1</v>
-      </c>
-      <c r="B89" s="3">
-        <v>308</v>
-      </c>
-      <c r="C89" s="3">
-        <v>308</v>
+      <c r="A89" s="16">
+        <v>1</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" si="2"/>
+        <v>313</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="3"/>
+        <v>313</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>181</v>
@@ -3485,14 +3673,16 @@
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="4">
+      <c r="A90" s="16">
         <v>9</v>
       </c>
-      <c r="B90" s="3">
-        <v>309</v>
-      </c>
-      <c r="C90" s="3">
-        <v>317</v>
+      <c r="B90" s="15">
+        <f t="shared" si="2"/>
+        <v>314</v>
+      </c>
+      <c r="C90" s="15">
+        <f t="shared" si="3"/>
+        <v>322</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>183</v>
@@ -3505,14 +3695,16 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="4">
+      <c r="A91" s="16">
         <v>10</v>
       </c>
-      <c r="B91" s="3">
-        <v>318</v>
-      </c>
-      <c r="C91" s="3">
-        <v>327</v>
+      <c r="B91" s="15">
+        <f t="shared" si="2"/>
+        <v>323</v>
+      </c>
+      <c r="C91" s="15">
+        <f t="shared" si="3"/>
+        <v>332</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>185</v>
@@ -3525,19 +3717,21 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="6">
-        <v>1</v>
-      </c>
-      <c r="B92" s="5">
-        <v>328</v>
-      </c>
-      <c r="C92" s="5">
-        <v>328</v>
+      <c r="A92" s="18">
+        <v>1</v>
+      </c>
+      <c r="B92" s="19">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="C92" s="19">
+        <f t="shared" si="3"/>
+        <v>333</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="20" t="s">
         <v>188</v>
       </c>
       <c r="F92" t="s">
@@ -3545,19 +3739,21 @@
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="6">
-        <v>8</v>
-      </c>
-      <c r="B93" s="5">
-        <v>329</v>
-      </c>
-      <c r="C93" s="5">
-        <v>336</v>
+      <c r="A93" s="18">
+        <v>8</v>
+      </c>
+      <c r="B93" s="19">
+        <f t="shared" si="2"/>
+        <v>334</v>
+      </c>
+      <c r="C93" s="19">
+        <f t="shared" si="3"/>
+        <v>341</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="20" t="s">
         <v>190</v>
       </c>
       <c r="F93" t="s">
@@ -3565,19 +3761,21 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="6">
-        <v>8</v>
-      </c>
-      <c r="B94" s="5">
-        <v>337</v>
-      </c>
-      <c r="C94" s="5">
-        <v>344</v>
+      <c r="A94" s="18">
+        <v>8</v>
+      </c>
+      <c r="B94" s="19">
+        <f t="shared" si="2"/>
+        <v>342</v>
+      </c>
+      <c r="C94" s="19">
+        <f t="shared" si="3"/>
+        <v>349</v>
       </c>
       <c r="D94" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="20" t="s">
         <v>192</v>
       </c>
       <c r="F94" t="s">
@@ -3585,19 +3783,21 @@
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="6">
+      <c r="A95" s="18">
         <v>3</v>
       </c>
-      <c r="B95" s="5">
-        <v>345</v>
-      </c>
-      <c r="C95" s="5">
-        <v>347</v>
+      <c r="B95" s="19">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="C95" s="19">
+        <f t="shared" si="3"/>
+        <v>352</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="20" t="s">
         <v>194</v>
       </c>
       <c r="F95" t="s">
@@ -3605,19 +3805,21 @@
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="6">
+      <c r="A96" s="18">
         <v>3</v>
       </c>
-      <c r="B96" s="5">
-        <v>348</v>
-      </c>
-      <c r="C96" s="5">
-        <v>350</v>
+      <c r="B96" s="19">
+        <f t="shared" si="2"/>
+        <v>353</v>
+      </c>
+      <c r="C96" s="19">
+        <f t="shared" si="3"/>
+        <v>355</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="20" t="s">
         <v>196</v>
       </c>
       <c r="F96" t="s">
@@ -3625,19 +3827,21 @@
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="6">
-        <v>1</v>
-      </c>
-      <c r="B97" s="5">
-        <v>351</v>
-      </c>
-      <c r="C97" s="5">
-        <v>351</v>
+      <c r="A97" s="18">
+        <v>1</v>
+      </c>
+      <c r="B97" s="19">
+        <f t="shared" si="2"/>
+        <v>356</v>
+      </c>
+      <c r="C97" s="19">
+        <f t="shared" si="3"/>
+        <v>356</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="20" t="s">
         <v>198</v>
       </c>
       <c r="F97" t="s">
@@ -3645,19 +3849,21 @@
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="6">
-        <v>8</v>
-      </c>
-      <c r="B98" s="5">
-        <v>352</v>
-      </c>
-      <c r="C98" s="5">
-        <v>359</v>
+      <c r="A98" s="18">
+        <v>8</v>
+      </c>
+      <c r="B98" s="19">
+        <f t="shared" si="2"/>
+        <v>357</v>
+      </c>
+      <c r="C98" s="19">
+        <f t="shared" si="3"/>
+        <v>364</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="20" t="s">
         <v>200</v>
       </c>
       <c r="F98" t="s">
@@ -3665,19 +3871,21 @@
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="6">
-        <v>8</v>
-      </c>
-      <c r="B99" s="5">
-        <v>360</v>
-      </c>
-      <c r="C99" s="5">
-        <v>367</v>
+      <c r="A99" s="18">
+        <v>8</v>
+      </c>
+      <c r="B99" s="19">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+      <c r="C99" s="19">
+        <f t="shared" si="3"/>
+        <v>372</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="20" t="s">
         <v>202</v>
       </c>
       <c r="F99" t="s">
@@ -3685,19 +3893,21 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="6">
+      <c r="A100" s="18">
         <v>50</v>
       </c>
-      <c r="B100" s="5">
-        <v>368</v>
-      </c>
-      <c r="C100" s="5">
-        <v>417</v>
+      <c r="B100" s="19">
+        <f t="shared" si="2"/>
+        <v>373</v>
+      </c>
+      <c r="C100" s="19">
+        <f t="shared" si="3"/>
+        <v>422</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="20" t="s">
         <v>84</v>
       </c>
       <c r="F100" t="s">
@@ -3705,19 +3915,21 @@
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="6">
+      <c r="A101" s="18">
         <v>32</v>
       </c>
-      <c r="B101" s="5">
-        <v>418</v>
-      </c>
-      <c r="C101" s="5">
-        <v>449</v>
+      <c r="B101" s="19">
+        <f t="shared" si="2"/>
+        <v>423</v>
+      </c>
+      <c r="C101" s="19">
+        <f t="shared" si="3"/>
+        <v>454</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="20" t="s">
         <v>205</v>
       </c>
       <c r="F101" t="s">
@@ -3725,19 +3937,21 @@
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="6">
+      <c r="A102" s="18">
         <v>344</v>
       </c>
-      <c r="B102" s="5">
-        <v>450</v>
-      </c>
-      <c r="C102" s="5">
-        <v>793</v>
+      <c r="B102" s="19">
+        <f t="shared" si="2"/>
+        <v>455</v>
+      </c>
+      <c r="C102" s="19">
+        <f t="shared" si="3"/>
+        <v>798</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="20" t="s">
         <v>207</v>
       </c>
       <c r="F102" t="s">
